--- a/bin/Debug/net8.0-windows/93-24-2030_РКМ_Койда_1_безопасность.xlsx
+++ b/bin/Debug/net8.0-windows/93-24-2030_РКМ_Койда_1_безопасность.xlsx
@@ -1081,8 +1081,7 @@
     <x:t>1200</x:t>
   </x:si>
   <x:si>
-    <x:t>Производственная себестоимость
-(сумма строк 0100, 0200, 0300, 0400, 0500 – 1200)</x:t>
+    <x:t>!!!</x:t>
   </x:si>
   <x:si>
     <x:t>1300</x:t>
@@ -1872,7 +1871,7 @@
     <x:t xml:space="preserve">     (подпись)                                                                                 (Ф.И.О.)</x:t>
   </x:si>
   <x:si>
-    <x:t>______________                        Барышева И.М.</x:t>
+    <x:t>______________                        !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">                    (Ф.И.О.)</x:t>
@@ -1881,7 +1880,7 @@
     <x:t xml:space="preserve">     (подпись)                                                                        (Ф.И.О.)</x:t>
   </x:si>
   <x:si>
-    <x:t>_________________                 Барышева И.М.</x:t>
+    <x:t>_________________                 !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">     (подпись)                                                                             </x:t>
@@ -1890,19 +1889,19 @@
     <x:t>_____________________                                          Крутиков П.Ю.</x:t>
   </x:si>
   <x:si>
-    <x:t>______________________       Барышева И.М.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>______________                       Барышева И.М.</x:t>
+    <x:t>______________________       !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>______________                       !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">      (подпись)                        </x:t>
   </x:si>
   <x:si>
-    <x:t>____________                                          Барышева И.М.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_______________                   Барышева И.М.</x:t>
+    <x:t>____________                                          !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_______________                   !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">     (подпись)                                                    (Ф.И.О.)</x:t>
@@ -1914,7 +1913,7 @@
     <x:t xml:space="preserve">     (подпись)                                                                                         </x:t>
   </x:si>
   <x:si>
-    <x:t>_______________                  Барышева И.М.</x:t>
+    <x:t>_______________                  !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">     (подпись)                                     (Ф.И.О.)</x:t>
@@ -1923,16 +1922,16 @@
     <x:t>________________                                                Крутиков П.Ю.</x:t>
   </x:si>
   <x:si>
-    <x:t>___________________               Барышева И.М.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> ______________                Барышева И.М.</x:t>
+    <x:t>___________________               !!! И.М.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> ______________                !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">     (Ф.И.О.)</x:t>
   </x:si>
   <x:si>
-    <x:t>___________________                   Барышева И.М.</x:t>
+    <x:t>___________________                   !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t>___________________                      Крутиков П.Ю.</x:t>
@@ -1956,7 +1955,7 @@
     <x:t>______________                                 Крутиков П.Ю.</x:t>
   </x:si>
   <x:si>
-    <x:t>_______________                Барышева И.М.</x:t>
+    <x:t>_______________                !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t>______________                                              Крутиков П.Ю.</x:t>
@@ -2190,7 +2189,7 @@
     <x:t>_________________                                                                 Крутиков П.Ю.</x:t>
   </x:si>
   <x:si>
-    <x:t>______________________      Барышева И.М.</x:t>
+    <x:t>______________________      !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">                                                                    (Ф.И.О.)</x:t>
@@ -2220,7 +2219,7 @@
     <x:t xml:space="preserve">     (подпись)                                                                 (Ф.И.О.)</x:t>
   </x:si>
   <x:si>
-    <x:t>_______________                                          Барышева И.М.</x:t>
+    <x:t>_______________                                          !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">     (подпись)                                                                                         (Ф.И.О.)</x:t>
@@ -2238,7 +2237,7 @@
     <x:t>________________                                  Крутиков П.Ю.</x:t>
   </x:si>
   <x:si>
-    <x:t>________________                    Барышева И.М.</x:t>
+    <x:t>________________                    !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">          (Ф.И.О.)</x:t>
@@ -2274,7 +2273,7 @@
     <x:t>__________________________     Ильичев П.В.</x:t>
   </x:si>
   <x:si>
-    <x:t>__________________                 Барышева И.М.</x:t>
+    <x:t>__________________                 !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">              (подпись)                                                 (Ф.И.О.)</x:t>
@@ -2551,7 +2550,7 @@
     <x:t xml:space="preserve"> - г. Мезень, Ахангельской обл.</x:t>
   </x:si>
   <x:si>
-    <x:t>______________ Барышева И.М.</x:t>
+    <x:t>______________ !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t>отчетный период  
@@ -2567,7 +2566,7 @@
     <x:t xml:space="preserve">     (подпись)                                       (Ф.И.О.)</x:t>
   </x:si>
   <x:si>
-    <x:t>_____________                  Барышева И.М.</x:t>
+    <x:t>_____________                  !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">    __________________                   Ильичев П.В.</x:t>
@@ -3508,7 +3507,7 @@
     <x:t xml:space="preserve">     (подпись)                                                                         (Ф.И.О.)</x:t>
   </x:si>
   <x:si>
-    <x:t>_______________                    Барышева И.М.</x:t>
+    <x:t>_______________                    !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t>______________                                 Иьичев П.В.</x:t>
@@ -3526,7 +3525,7 @@
     <x:t xml:space="preserve">     (подпись)                            (Ф.И.О.)</x:t>
   </x:si>
   <x:si>
-    <x:t>______________      Барышева И.М.</x:t>
+    <x:t>______________      !!! И.М.</x:t>
   </x:si>
   <x:si>
     <x:t>______________    Ильичев П.В.</x:t>
@@ -3553,7 +3552,7 @@
     <x:t>"10" апреля 2025 г.</x:t>
   </x:si>
   <x:si>
-    <x:t>"   " ______________ 2025 г.</x:t>
+    <x:t>"   " ______________ 2030г.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">"31" марта 2025г. </x:t>

--- a/bin/Debug/net8.0-windows/93-24-2030_РКМ_Койда_1_безопасность.xlsx
+++ b/bin/Debug/net8.0-windows/93-24-2030_РКМ_Койда_1_безопасность.xlsx
@@ -1745,7 +1745,7 @@
     <x:t xml:space="preserve">(наименование организации - поставщика (подрядчика, исполнителя)) </x:t>
   </x:si>
   <x:si>
-    <x:t>цена за единицу измерения (руб.)</x:t>
+    <x:t>!*! за единицу измерения (руб.)</x:t>
   </x:si>
   <x:si>
     <x:t>ООО "Бенефит Бизнес"</x:t>
@@ -3796,7 +3796,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t xml:space="preserve">цена за единицу </x:t>
+      <x:t xml:space="preserve">!*! за единицу </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -3810,7 +3810,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t xml:space="preserve">цена за единицу </x:t>
+      <x:t xml:space="preserve">!*! за единицу </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -3992,7 +3992,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t xml:space="preserve">цена за единицу </x:t>
+      <x:t xml:space="preserve">!*! за единицу </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -4041,7 +4041,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t xml:space="preserve">цена за единицу </x:t>
+      <x:t xml:space="preserve">!*! за единицу </x:t>
     </x:r>
     <x:r>
       <x:rPr>
